--- a/medicine/Enfance/Jean_Lemieux_(écrivain)/Jean_Lemieux_(écrivain).xlsx
+++ b/medicine/Enfance/Jean_Lemieux_(écrivain)/Jean_Lemieux_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Lemieux_(%C3%A9crivain)</t>
+          <t>Jean_Lemieux_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Lemieux est un médecin, romancier et nouvelliste québécois né à Saint-Jean-sur-Richelieu (Iberville) le 21 janvier 1954.
 Il écrit son premier roman, qui sera refusé par les maisons d'édition, à l'âge de 16 ans. Il complète ensuite des études en médecine à Montréal. Il exerce la médecine de 1980 à 1982 aux Îles de la Madeleine.
 Il voyage ensuite pendant une année complète. Après un séjour d'une année dans sa région natale de la Montérégie, il retourne aux Îles en 1984 et y renoue avec la médecine et l'écriture. Il s'installe à Québec en 1994. L'œuvre de Jean Lemieux, partagée entre le roman, le polar et la littérature jeunesse, explore les thèmes de la quête d'identité et des liens familiaux. Ses livres ont été traduits en anglais, en espagnol et en allemand.
-On finit toujours par payer a été adapté au cinéma par Gabriel Pelletier en 2012 sous le nom La Peur de l'eau. La série de romans policiers mettant en scène le sergent-détective André Surprenant fait l'objet d'une télésérie dont la première saison, Détective Surprenant: La fille aux yeux de pierre, a été produite en 2023 et mise en ligne sur Club illico le 7 décembre 2023[1].
+On finit toujours par payer a été adapté au cinéma par Gabriel Pelletier en 2012 sous le nom La Peur de l'eau. La série de romans policiers mettant en scène le sergent-détective André Surprenant fait l'objet d'une télésérie dont la première saison, Détective Surprenant: La fille aux yeux de pierre, a été produite en 2023 et mise en ligne sur Club illico le 7 décembre 2023.
 </t>
         </is>
       </c>
